--- a/data/2023_Estimation9323.xlsx
+++ b/data/2023_Estimation9323.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/01463691_wf_uct_ac_za/Documents/GitHub/Fiscal-DSGE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{AD2389CE-B79A-4A55-9B96-6214A76DA9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55215653-AA67-4AF6-B32B-235EC26F1A28}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{AD2389CE-B79A-4A55-9B96-6214A76DA9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1C39D06-C1E8-7140-9079-777272155066}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{93CB93AB-C99B-499A-BF27-EB1C5C26D71A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{93CB93AB-C99B-499A-BF27-EB1C5C26D71A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -537,6 +537,5178 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>South Africa: Real</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> wage vs Employment (1994Q1 - 2020Q1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real wage per worker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3430716993709021E-2"/>
+                  <c:y val="-0.18287864453795541"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$K$2:$K$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.32963076224921117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39607893783615289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42362483323348243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41286088262837417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36555750495237405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3444982398793428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35043817954942824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38299603520330905</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43040051472336138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45969138487098604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45991729049061902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43159961874188468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34431175448395024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27894414857256855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20434326185645446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12043335611768846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6125435957387069E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6545764621689329E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0663042756409169E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8433390791835507E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11957266481590345</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1612195138205319</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.16334024580766382</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12617495501463516</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0286943355717355E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.7597831376157131E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.7255228747661349E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.14877052556632187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.17978293216600605</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.21732889770604835</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.24904389107911484</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.27490290343372692</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.233746768912102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.19970804885747206</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.11157755521202795</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0718351396652466E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.20125253344223104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33544671676488669</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.40794268398021138</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41945126509235209</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.37853608727678179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.37850970039272624</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42628453354427442</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.52100256719258553</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68665232765940942</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81554039631446251</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93294172400888442</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0387905499174455</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0646982350948964</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0987508731560958</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0735709775799851</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99164145478547461</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83675617005023462</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.72531451222572763</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.63755810287582371</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.57264050207961326</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55554619140885109</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0061417659392724</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.24027746431101171</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5008126710921665</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.0413570368467795</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.7879190930148781</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.7397482468890075</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0286750421644175</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.2675718872414254</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.69376277317091E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.1727562753890641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8151954142812343</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.3162363090054612E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.12937542234388033</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.3980256226805654</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5323277259294166</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.36338265003728054</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.32152121078787843</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6060154132438775</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.26129424204301976</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.23382171439769728</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91624572613548949</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.3144197744510375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.93337982759771343</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.80709620442114272</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.25871519289792921</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.15226245038943986</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3339225945874222</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.90593435556183266</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.269977040020942</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0889996544278358</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1909077895766895</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.1681313079449538</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.82682184987410423</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8340866590379701</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4759125198473111</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.8899344199677639</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.69660365157773185</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.56957848601766337</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.1275791220443967</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2688782035371826</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.54933221736881421</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.56490083748421682</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.90326085600511696</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.4458604729019164</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.13047209581964481</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.38119983434241611</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.27601376083166151</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.22993834098516963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$L$2:$L$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>-0.52619378220146729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78873850863097061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.01599155746257E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6843723610904249E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61851081083599269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2536182060367551</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5633272930276618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3120635431482341</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.67011218668220351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61743771686604276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84379189551526679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1706258414838189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.11240480171927913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22708183268846938</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8546334848192458</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3058337637682271</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65557010314361008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39925853480546891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2285604257207297E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.637611158182068E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.16490660192243212</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7965537829287115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4712862072291841</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.60620449502799545</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72254358278680542</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.58300712086900575</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.80723716436033044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33225199550752649</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.973910585641562E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25303918092305366</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0898916987672322</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.33162575448617559</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1100074009194216</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17231585251167303</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.3549482854257064E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.0112275016579417</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.88597283272324745</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.4311310687121335</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2729722744310408</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2209172921651827</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1095443851733222</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2631861666976718</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0513636641952715</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.2059173610983649</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.264102525518652</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.6104465164397794</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2098176162707261</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.85751759685628315</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.34521408966199374</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6222761158571686</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5.9194861617584138E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.61837975669014611</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.76865913887846915</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.380569273908705</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.38593545907108506</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.3608262224893863</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.66436476203168837</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.35493998665021564</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.67919004167737995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.331321675259403E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.1200423496289247</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5351892923783694</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.545600923765349</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.94672547760588088</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5537758926994059</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0046648367863398</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0390989673433566</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.3305145052238174E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.031432951278255</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.10802722733522785</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.89074459982967369</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.6149517808210945</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.0067128897865771</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.1065919657802894</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.37660151957759069</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.33417283820948995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.4009631616721094</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.3698622499021198</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.4460961639702461</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.37428453572818654</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.62910404276621534</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.44556903021621963</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0936737173976141</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.46169579038224384</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.25884400789735196</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.1546877309376313</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.4155113456794766</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.48535324935663482</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2575390585723554</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.94122076400573462</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.9716142914957047</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.4329004729900063</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.68646792140647506</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5590309256850787</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.5545190388467347</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.63174242269958825</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.7248826332300524</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.75086157320978231</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.9221564858531508E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.13519759701239309</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.83949919350594371</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.11279511420418942</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.5131604703162651</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.3636342001353654</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.70577257863178033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4FC-3744-B1DD-B3440818AF48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="973170160"/>
+        <c:axId val="973171872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="973170160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+                  <a:t> employment</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="973171872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="973171872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>Real</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                  <a:t> wage per worker</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="973170160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>South Africa: Inflation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> (GDP deflator) vs Employment (1994Q1 - 2020Q1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GDP price deflator</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3430716993709021E-2"/>
+                  <c:y val="-0.18287864453795541"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$K$2:$K$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.32963076224921117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39607893783615289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42362483323348243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41286088262837417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36555750495237405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3444982398793428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35043817954942824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38299603520330905</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43040051472336138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45969138487098604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45991729049061902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43159961874188468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34431175448395024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27894414857256855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20434326185645446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12043335611768846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6125435957387069E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6545764621689329E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0663042756409169E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8433390791835507E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11957266481590345</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1612195138205319</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.16334024580766382</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12617495501463516</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0286943355717355E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.7597831376157131E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.7255228747661349E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.14877052556632187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.17978293216600605</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.21732889770604835</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.24904389107911484</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.27490290343372692</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.233746768912102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.19970804885747206</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.11157755521202795</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0718351396652466E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.20125253344223104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33544671676488669</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.40794268398021138</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41945126509235209</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.37853608727678179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.37850970039272624</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42628453354427442</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.52100256719258553</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68665232765940942</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81554039631446251</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93294172400888442</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0387905499174455</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0646982350948964</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0987508731560958</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0735709775799851</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99164145478547461</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83675617005023462</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.72531451222572763</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.63755810287582371</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.57264050207961326</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55554619140885109</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0061417659392724</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.24027746431101171</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5008126710921665</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.0413570368467795</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.7879190930148781</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.7397482468890075</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0286750421644175</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.2675718872414254</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.69376277317091E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.1727562753890641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8151954142812343</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.3162363090054612E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.12937542234388033</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.3980256226805654</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5323277259294166</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.36338265003728054</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.32152121078787843</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6060154132438775</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.26129424204301976</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.23382171439769728</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91624572613548949</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.3144197744510375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.93337982759771343</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.80709620442114272</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.25871519289792921</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.15226245038943986</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3339225945874222</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.90593435556183266</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.269977040020942</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0889996544278358</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1909077895766895</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.1681313079449538</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.82682184987410423</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8340866590379701</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4759125198473111</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.8899344199677639</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.69660365157773185</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.56957848601766337</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.1275791220443967</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2688782035371826</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.54933221736881421</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.56490083748421682</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.90326085600511696</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.4458604729019164</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.13047209581964481</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.38119983434241611</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.27601376083166151</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.22993834098516963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$C$2:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>4.0704609219996968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69391217079566303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64324906718820074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.136566909906513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4048735807431729</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3096207252907508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0484534280460718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0188585567916704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30819601260412277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7108033331472381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2425956939861482</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6330959499931463</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1641808806637464</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0480680199016721</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0995689601404521</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2434586985071725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0815364479209499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3209366558208941</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.108917630776407</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.620580791330184</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2214194314247528</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90681649481396676</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5419408376196504</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4290242806837217</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0225627250848301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2601921781237664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6080012983561893</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6488477252161182</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4245552261994199</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1863433719567329</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.567355274358162</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4617568106470422</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4124134623851905</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5762843800285928</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0430520327207269</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9600752736823601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2587481296032266</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2375971785145712</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0565895145015158</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5572382533039608</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.0763384004955032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2462159055689703</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.75713941496249326</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8370782684376419</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1713721562256918</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.36659964527448</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2557489735242289</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1783618349755063</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23544240815454032</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.6269332836818649</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5397266834966459</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0193783487039809</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.5092558311252908</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.79596170202034244</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.183500984961583</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2645092921814047</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1589276505262553</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63547146585944958</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.5986656849296352</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59306101877325546</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.0899316161313592</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5590983382679724</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.175164540194352</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.24305952055936331</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.87684227406546</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8276390543282126</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-5.3052769384809295E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2373849275005178</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.1958509852029842</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7610745640885384</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9036010428036931</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2386583382614447</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71041060652667909</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2052724304064455</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.79167044476822213</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.051074911179839</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1784470663090083</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3725481468260803</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2364720098788418</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.4424160125112273</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8760520592831398</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.58138119076582839</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4284716152492827</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66658752644404018</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5303650874907149</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2766476384959766</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85514798226951072</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.4812950313414674</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.5002152150023882</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9701436572352904</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.95332163084975718</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.65259734915512624</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.895840495155543</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0954319585269268</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7914472038618179</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.99815985065188073</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.11149177234441865</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.7119923734811415</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2052099349810774</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.88771003965169015</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.43592135716501446</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.9367830587927237</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.2902078890272506</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.1266048081282065</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.1889230433705045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-552B-EF4E-8757-32806D37D288}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="973170160"/>
+        <c:axId val="973171872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="973170160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+                  <a:t> employment (q/q%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="973171872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="973171872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>GDP deflator </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                  <a:t>(q/q %)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="973170160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>South Africa: Inflation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> (CPI deflator) vs Employment (1994Q1 - 2020Q1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3430716993709021E-2"/>
+                  <c:y val="-0.18287864453795541"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$K$2:$K$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0.32963076224921117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39607893783615289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42362483323348243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41286088262837417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36555750495237405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3444982398793428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35043817954942824</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38299603520330905</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43040051472336138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45969138487098604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45991729049061902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43159961874188468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34431175448395024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.27894414857256855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20434326185645446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12043335611768846</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6125435957387069E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6545764621689329E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0663042756409169E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8433390791835507E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11957266481590345</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1612195138205319</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.16334024580766382</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.12617495501463516</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0286943355717355E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.7597831376157131E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.7255228747661349E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.14877052556632187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.17978293216600605</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.21732889770604835</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.24904389107911484</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.27490290343372692</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.233746768912102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.19970804885747206</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.11157755521202795</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0718351396652466E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.20125253344223104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33544671676488669</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.40794268398021138</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.41945126509235209</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.37853608727678179</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.37850970039272624</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42628453354427442</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.52100256719258553</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68665232765940942</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81554039631446251</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.93294172400888442</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0387905499174455</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0646982350948964</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0987508731560958</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0735709775799851</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99164145478547461</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83675617005023462</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.72531451222572763</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.63755810287582371</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.57264050207961326</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55554619140885109</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0061417659392724</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.24027746431101171</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5008126710921665</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.0413570368467795</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.7879190930148781</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.7397482468890075</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0286750421644175</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.2675718872414254</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.69376277317091E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.1727562753890641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8151954142812343</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.3162363090054612E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.12937542234388033</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.3980256226805654</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5323277259294166</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.36338265003728054</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.32152121078787843</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6060154132438775</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.26129424204301976</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.23382171439769728</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.91624572613548949</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.3144197744510375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.93337982759771343</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.80709620442114272</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.25871519289792921</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.15226245038943986</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3339225945874222</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.90593435556183266</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.269977040020942</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0889996544278358</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1909077895766895</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.1681313079449538</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.82682184987410423</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8340866590379701</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4759125198473111</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.8899344199677639</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.69660365157773185</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.56957848601766337</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.1275791220443967</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2688782035371826</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.54933221736881421</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.56490083748421682</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.90326085600511696</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.4458604729019164</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.13047209581964481</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.38119983434241611</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.27601376083166151</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.22993834098516963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$N$2:$N$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>2.6831444067996202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3198799997355071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9025795047025849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.529167671004684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6851400911323875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0103747669761418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18611468625899796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4156243322437589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6470652290136343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7865466421080001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.561561012006818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7436310183967638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2861707724304967</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4850640202013654</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60707510130071363</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0781312501033202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0920351309084317</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2073715653511563</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0612555736799774</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4439817133323771</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4034233454050415</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.696518048677099E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.49216702705585647</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.157314444448776</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0416370785663496</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9676059627316</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2740941791759663</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6809694363638883</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2007252358546392</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90272271296480966</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.8424998821891023E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2999754293837817</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4422189487864241</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6770195902582117</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5516413531904369</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3388532856871045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1387524370612088</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.6152336684544011E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.1375284733820212</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.8858330127735634</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0124391714918968</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.4935694446280863E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.10529580031941599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.73996958536577395</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.356104831683691</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.9443230201307031E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.33866948380558703</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.43669318023633608</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2915208021497815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.37667163372407941</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5392978971635163</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.20527688354648</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8417073279505036</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1827521574627742</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7620038106608948</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0876519397659443</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.0243513516249099</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.6132140276848403</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1252543504104668</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63897980987701608</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6424879667400916</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1079515791053272</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.8237587549780887</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.48077015681045054</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.0733555643107628</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0032542100888442</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.76045993852185134</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.52310494175529243</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4388737452098788</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8681550945580661</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4476867532155602</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0995162995571128</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5192912961839333</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4434893783602298</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.95087879690280985</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6167236102994309</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5400715068129678</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4163109787737049</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4460486331052458</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.83806258315561877</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0408871631206971</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9529079808045857</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.312108796269662</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.23250417356086572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.60199301965724317</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.3272782055375529</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.4775285582153685</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.3106281619070117</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1911481356218232</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.0592748276764716</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2239021734722577</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.96014095978302905</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8930606475418443</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0946794900537959</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.76320916759247126</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.83682496705161924</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2618463959212178</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5166536097429351</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2655969501869535</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.75930509075963215</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.56571902714432909</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7521417487714075</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.95624119599477808</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.40182702469211407</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.267903237668655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18DE-114F-A5D0-54CFB872E8E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="973170160"/>
+        <c:axId val="973171872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="973170160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+                  <a:t> employment (q/q%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="973171872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="973171872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                  <a:t> CPI inflation (q/q %)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="973170160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>389467</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>948267</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB45807-28C3-6BE0-3B42-69FB1E6AB60B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1490133</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1405466</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9A9641-4ABD-E944-81E5-1E9E1536D8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1134534</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2FA1F7-CAD2-8246-A215-F77FBE134F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -836,43 +6008,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7AA01B-61B8-48E1-A2A7-1CC04FB9A518}">
   <dimension ref="A1:AF122"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" customWidth="1"/>
-    <col min="21" max="22" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.83203125" customWidth="1"/>
+    <col min="21" max="22" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -968,7 +6140,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>34424</v>
       </c>
@@ -1060,7 +6232,7 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>34515</v>
       </c>
@@ -1152,7 +6324,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>34607</v>
       </c>
@@ -1244,7 +6416,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>34699</v>
       </c>
@@ -1336,7 +6508,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>34789</v>
       </c>
@@ -1428,7 +6600,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>34880</v>
       </c>
@@ -1520,7 +6692,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>34972</v>
       </c>
@@ -1612,7 +6784,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>35064</v>
       </c>
@@ -1704,7 +6876,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>35155</v>
       </c>
@@ -1796,7 +6968,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>35246</v>
       </c>
@@ -1888,7 +7060,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>35338</v>
       </c>
@@ -1980,7 +7152,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>35430</v>
       </c>
@@ -2072,7 +7244,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>35520</v>
       </c>
@@ -2164,7 +7336,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>35611</v>
       </c>
@@ -2256,7 +7428,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>35703</v>
       </c>
@@ -2348,7 +7520,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>35795</v>
       </c>
@@ -2440,7 +7612,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>35885</v>
       </c>
@@ -2532,7 +7704,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>35976</v>
       </c>
@@ -2624,7 +7796,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>36068</v>
       </c>
@@ -2716,7 +7888,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>36160</v>
       </c>
@@ -2808,7 +7980,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>36250</v>
       </c>
@@ -2900,7 +8072,7 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>36341</v>
       </c>
@@ -2992,7 +8164,7 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>36433</v>
       </c>
@@ -3084,7 +8256,7 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>36525</v>
       </c>
@@ -3176,7 +8348,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>36616</v>
       </c>
@@ -3268,7 +8440,7 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>36707</v>
       </c>
@@ -3360,7 +8532,7 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>36799</v>
       </c>
@@ -3452,7 +8624,7 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>36891</v>
       </c>
@@ -3544,7 +8716,7 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>36981</v>
       </c>
@@ -3636,7 +8808,7 @@
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>37072</v>
       </c>
@@ -3728,7 +8900,7 @@
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>37164</v>
       </c>
@@ -3820,7 +8992,7 @@
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>37256</v>
       </c>
@@ -3912,7 +9084,7 @@
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>37346</v>
       </c>
@@ -4004,7 +9176,7 @@
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>37437</v>
       </c>
@@ -4096,7 +9268,7 @@
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>37529</v>
       </c>
@@ -4188,7 +9360,7 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>37621</v>
       </c>
@@ -4280,7 +9452,7 @@
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37711</v>
       </c>
@@ -4372,7 +9544,7 @@
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37802</v>
       </c>
@@ -4464,7 +9636,7 @@
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>37894</v>
       </c>
@@ -4556,7 +9728,7 @@
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>37986</v>
       </c>
@@ -4648,7 +9820,7 @@
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>38077</v>
       </c>
@@ -4740,7 +9912,7 @@
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>38168</v>
       </c>
@@ -4832,7 +10004,7 @@
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>38260</v>
       </c>
@@ -4924,7 +10096,7 @@
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>38352</v>
       </c>
@@ -5016,7 +10188,7 @@
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>38442</v>
       </c>
@@ -5108,7 +10280,7 @@
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>38533</v>
       </c>
@@ -5200,7 +10372,7 @@
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>38625</v>
       </c>
@@ -5292,7 +10464,7 @@
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>38717</v>
       </c>
@@ -5384,7 +10556,7 @@
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>38807</v>
       </c>
@@ -5476,7 +10648,7 @@
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>38898</v>
       </c>
@@ -5568,7 +10740,7 @@
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>38990</v>
       </c>
@@ -5660,7 +10832,7 @@
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>39082</v>
       </c>
@@ -5752,7 +10924,7 @@
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>39172</v>
       </c>
@@ -5844,7 +11016,7 @@
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>39263</v>
       </c>
@@ -5936,7 +11108,7 @@
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>39355</v>
       </c>
@@ -6028,7 +11200,7 @@
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>39447</v>
       </c>
@@ -6120,7 +11292,7 @@
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>39538</v>
       </c>
@@ -6212,7 +11384,7 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>39629</v>
       </c>
@@ -6304,7 +11476,7 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>39721</v>
       </c>
@@ -6396,7 +11568,7 @@
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>39813</v>
       </c>
@@ -6488,7 +11660,7 @@
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>39903</v>
       </c>
@@ -6580,7 +11752,7 @@
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>39994</v>
       </c>
@@ -6672,7 +11844,7 @@
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>40086</v>
       </c>
@@ -6764,7 +11936,7 @@
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>40178</v>
       </c>
@@ -6856,7 +12028,7 @@
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>40268</v>
       </c>
@@ -6948,7 +12120,7 @@
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
@@ -7040,7 +12212,7 @@
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>40451</v>
       </c>
@@ -7132,7 +12304,7 @@
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>40543</v>
       </c>
@@ -7224,7 +12396,7 @@
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>40633</v>
       </c>
@@ -7316,7 +12488,7 @@
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>40724</v>
       </c>
@@ -7408,7 +12580,7 @@
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>40816</v>
       </c>
@@ -7500,7 +12672,7 @@
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>40908</v>
       </c>
@@ -7592,7 +12764,7 @@
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>40999</v>
       </c>
@@ -7684,7 +12856,7 @@
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>41090</v>
       </c>
@@ -7776,7 +12948,7 @@
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>41182</v>
       </c>
@@ -7868,7 +13040,7 @@
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>41274</v>
       </c>
@@ -7960,7 +13132,7 @@
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>41364</v>
       </c>
@@ -8052,7 +13224,7 @@
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>41455</v>
       </c>
@@ -8144,7 +13316,7 @@
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>41547</v>
       </c>
@@ -8236,7 +13408,7 @@
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>41639</v>
       </c>
@@ -8328,7 +13500,7 @@
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>41729</v>
       </c>
@@ -8420,7 +13592,7 @@
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>41820</v>
       </c>
@@ -8512,7 +13684,7 @@
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>41912</v>
       </c>
@@ -8604,7 +13776,7 @@
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>42004</v>
       </c>
@@ -8696,7 +13868,7 @@
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>42094</v>
       </c>
@@ -8788,7 +13960,7 @@
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>42185</v>
       </c>
@@ -8880,7 +14052,7 @@
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>42277</v>
       </c>
@@ -8972,7 +14144,7 @@
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>42369</v>
       </c>
@@ -9064,7 +14236,7 @@
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>42460</v>
       </c>
@@ -9156,7 +14328,7 @@
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>42551</v>
       </c>
@@ -9248,7 +14420,7 @@
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>42643</v>
       </c>
@@ -9340,7 +14512,7 @@
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>42735</v>
       </c>
@@ -9432,7 +14604,7 @@
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>42825</v>
       </c>
@@ -9524,7 +14696,7 @@
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>42916</v>
       </c>
@@ -9616,7 +14788,7 @@
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43008</v>
       </c>
@@ -9708,7 +14880,7 @@
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43100</v>
       </c>
@@ -9800,7 +14972,7 @@
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43190</v>
       </c>
@@ -9892,7 +15064,7 @@
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>43281</v>
       </c>
@@ -9984,7 +15156,7 @@
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>43373</v>
       </c>
@@ -10076,7 +15248,7 @@
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>43465</v>
       </c>
@@ -10168,7 +15340,7 @@
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>43555</v>
       </c>
@@ -10260,7 +15432,7 @@
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>43646</v>
       </c>
@@ -10352,7 +15524,7 @@
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>43738</v>
       </c>
@@ -10444,7 +15616,7 @@
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>43830</v>
       </c>
@@ -10536,7 +15708,7 @@
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>43921</v>
       </c>
@@ -10628,7 +15800,7 @@
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>44012</v>
       </c>
@@ -10720,7 +15892,7 @@
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>44104</v>
       </c>
@@ -10812,7 +15984,7 @@
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>44196</v>
       </c>
@@ -10904,7 +16076,7 @@
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>44286</v>
       </c>
@@ -10996,7 +16168,7 @@
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>44377</v>
       </c>
@@ -11088,7 +16260,7 @@
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>44469</v>
       </c>
@@ -11180,7 +16352,7 @@
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>44561</v>
       </c>
@@ -11272,7 +16444,7 @@
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>44651</v>
       </c>
@@ -11364,7 +16536,7 @@
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>44742</v>
       </c>
@@ -11456,7 +16628,7 @@
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>44834</v>
       </c>
@@ -11548,7 +16720,7 @@
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>44926</v>
       </c>
@@ -11640,7 +16812,7 @@
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>45016</v>
       </c>
@@ -11732,7 +16904,7 @@
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45107</v>
       </c>
@@ -11824,16 +16996,17 @@
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AB122" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11841,17 +17014,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C1BF52-4110-47C2-8F4D-21C4996837D4}">
   <dimension ref="B1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>130</v>
       </c>
@@ -11859,7 +17032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -11876,7 +17049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -11893,7 +17066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -11910,7 +17083,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>122</v>
       </c>
@@ -11924,7 +17097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>123</v>
       </c>
@@ -11938,7 +17111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -11958,7 +17131,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -11978,7 +17151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -11995,7 +17168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>135</v>
       </c>
@@ -12009,7 +17182,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -12026,7 +17199,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -12055,7 +17228,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -12078,7 +17251,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -12089,7 +17262,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -12106,7 +17279,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -12117,7 +17290,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -12134,7 +17307,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -12145,7 +17318,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -12162,7 +17335,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -12182,7 +17355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -12193,7 +17366,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -12207,7 +17380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -12227,7 +17400,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -12247,7 +17420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>124</v>
       </c>
@@ -12267,7 +17440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>19</v>
       </c>
@@ -12296,7 +17469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>20</v>
       </c>
@@ -12307,7 +17480,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>21</v>
       </c>
@@ -12345,7 +17518,7 @@
         <v>-3.0615000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>133</v>
       </c>
@@ -12371,7 +17544,7 @@
         <v>41.131</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>36</v>
       </c>
@@ -12385,7 +17558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>40</v>
       </c>
@@ -12405,7 +17578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>43</v>
       </c>
